--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Col18a1</t>
+  </si>
+  <si>
+    <t>Gpc1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col18a1</t>
-  </si>
-  <si>
-    <t>Gpc1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H2">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I2">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J2">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N2">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O2">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P2">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q2">
-        <v>20.40940023826023</v>
+        <v>49.58049424888011</v>
       </c>
       <c r="R2">
-        <v>183.684602144342</v>
+        <v>446.224448239921</v>
       </c>
       <c r="S2">
-        <v>0.009591952989361763</v>
+        <v>0.013524512524272</v>
       </c>
       <c r="T2">
-        <v>0.01473518854733409</v>
+        <v>0.02086909013857935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H3">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I3">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J3">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N3">
         <v>20.463629</v>
       </c>
       <c r="O3">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P3">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q3">
-        <v>144.4044311142482</v>
+        <v>221.7015218582335</v>
       </c>
       <c r="R3">
-        <v>1299.639880028234</v>
+        <v>1995.313696724101</v>
       </c>
       <c r="S3">
-        <v>0.06786679170056155</v>
+        <v>0.06047549655254934</v>
       </c>
       <c r="T3">
-        <v>0.1042571802551092</v>
+        <v>0.09331712225971202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H4">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I4">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J4">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N4">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O4">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P4">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q4">
-        <v>30.06533734043889</v>
+        <v>38.92123981158979</v>
       </c>
       <c r="R4">
-        <v>270.58803606395</v>
+        <v>350.2911583043081</v>
       </c>
       <c r="S4">
-        <v>0.01413002337217998</v>
+        <v>0.01061689285810074</v>
       </c>
       <c r="T4">
-        <v>0.02170658663550888</v>
+        <v>0.01638246802978727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H5">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I5">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J5">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N5">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O5">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P5">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q5">
-        <v>428.3898445685791</v>
+        <v>1383.651953905459</v>
       </c>
       <c r="R5">
-        <v>2570.339067411474</v>
+        <v>8301.911723432757</v>
       </c>
       <c r="S5">
-        <v>0.2013334641024257</v>
+        <v>0.3774310535488559</v>
       </c>
       <c r="T5">
-        <v>0.2061927366079638</v>
+        <v>0.3882650194587588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H6">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I6">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J6">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N6">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O6">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P6">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q6">
-        <v>31.59266205207756</v>
+        <v>25.12793530211178</v>
       </c>
       <c r="R6">
-        <v>284.333958468698</v>
+        <v>226.151417719006</v>
       </c>
       <c r="S6">
-        <v>0.01484783117948953</v>
+        <v>0.006854370470705494</v>
       </c>
       <c r="T6">
-        <v>0.02280928526144933</v>
+        <v>0.01057668251921481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>38.891062</v>
       </c>
       <c r="I7">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J7">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N7">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O7">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P7">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q7">
-        <v>12.49797550834155</v>
+        <v>19.77571179515089</v>
       </c>
       <c r="R7">
-        <v>112.481779575074</v>
+        <v>177.981406156358</v>
       </c>
       <c r="S7">
-        <v>0.005873763664719327</v>
+        <v>0.005394396847021202</v>
       </c>
       <c r="T7">
-        <v>0.009023294336211955</v>
+        <v>0.008323860386222199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>38.891062</v>
       </c>
       <c r="I8">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J8">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N8">
         <v>20.463629</v>
       </c>
       <c r="O8">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P8">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q8">
-        <v>88.42802935377753</v>
+        <v>88.42802935377756</v>
       </c>
       <c r="R8">
-        <v>795.8522641839978</v>
+        <v>795.852264183998</v>
       </c>
       <c r="S8">
-        <v>0.04155915855446225</v>
+        <v>0.02412130029379184</v>
       </c>
       <c r="T8">
-        <v>0.06384331093446077</v>
+        <v>0.0372205348760235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>38.891062</v>
       </c>
       <c r="I9">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J9">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N9">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O9">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P9">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q9">
-        <v>18.41092072007222</v>
+        <v>15.52415386099822</v>
       </c>
       <c r="R9">
-        <v>165.69828648065</v>
+        <v>139.717384748984</v>
       </c>
       <c r="S9">
-        <v>0.008652713160416367</v>
+        <v>0.004234661564039136</v>
       </c>
       <c r="T9">
-        <v>0.0132923253487732</v>
+        <v>0.006534323046964467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>38.891062</v>
       </c>
       <c r="I10">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J10">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N10">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O10">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P10">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q10">
-        <v>262.330383202713</v>
+        <v>551.8844190596146</v>
       </c>
       <c r="R10">
-        <v>1573.982299216278</v>
+        <v>3311.306514357688</v>
       </c>
       <c r="S10">
-        <v>0.1232893016936678</v>
+        <v>0.1505424229951263</v>
       </c>
       <c r="T10">
-        <v>0.1262649437043881</v>
+        <v>0.1548636664736051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>38.891062</v>
       </c>
       <c r="I11">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J11">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N11">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O11">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P11">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q11">
-        <v>19.34619890642289</v>
+        <v>10.02254644835422</v>
       </c>
       <c r="R11">
-        <v>174.115790157806</v>
+        <v>90.20291803518801</v>
       </c>
       <c r="S11">
-        <v>0.009092272593360087</v>
+        <v>0.002733939163362138</v>
       </c>
       <c r="T11">
-        <v>0.01396757794116689</v>
+        <v>0.004218623239189007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H12">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I12">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J12">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N12">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O12">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P12">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q12">
-        <v>0.05347727723</v>
+        <v>36.255213650573</v>
       </c>
       <c r="R12">
-        <v>0.48129549507</v>
+        <v>217.531281903438</v>
       </c>
       <c r="S12">
-        <v>2.513310157089418E-05</v>
+        <v>0.009889657183044461</v>
       </c>
       <c r="T12">
-        <v>3.860955019662439E-05</v>
+        <v>0.01017353474895826</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H13">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I13">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J13">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N13">
         <v>20.463629</v>
       </c>
       <c r="O13">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P13">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q13">
-        <v>0.3783725002099999</v>
+        <v>162.116900272913</v>
       </c>
       <c r="R13">
-        <v>3.405352501889999</v>
+        <v>972.7014016374779</v>
       </c>
       <c r="S13">
-        <v>0.0001778264521305194</v>
+        <v>0.0442220692099432</v>
       </c>
       <c r="T13">
-        <v>0.0002731775587049697</v>
+        <v>0.04549144115425215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H14">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I14">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J14">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N14">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O14">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P14">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q14">
-        <v>0.07877803175</v>
+        <v>28.460746232804</v>
       </c>
       <c r="R14">
-        <v>0.70900228575</v>
+        <v>170.764477396824</v>
       </c>
       <c r="S14">
-        <v>3.702387960053361E-05</v>
+        <v>0.007763490959640426</v>
       </c>
       <c r="T14">
-        <v>5.687620104818293E-05</v>
+        <v>0.007986338008413257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H15">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I15">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J15">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N15">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O15">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P15">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q15">
-        <v>1.122478966215</v>
+        <v>1011.780902285142</v>
       </c>
       <c r="R15">
-        <v>6.734873797290001</v>
+        <v>4047.123609140568</v>
       </c>
       <c r="S15">
-        <v>0.0005275395332439946</v>
+        <v>0.2759924783340317</v>
       </c>
       <c r="T15">
-        <v>0.0005402719339946857</v>
+        <v>0.1892764677826789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H16">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I16">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J16">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N16">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O16">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P16">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q16">
-        <v>0.08277997037</v>
+        <v>18.374537744678</v>
       </c>
       <c r="R16">
-        <v>0.7450197333299999</v>
+        <v>110.247226468068</v>
       </c>
       <c r="S16">
-        <v>3.890469954924482E-05</v>
+        <v>0.005012186135300968</v>
       </c>
       <c r="T16">
-        <v>5.976552260747166E-05</v>
+        <v>0.005156058382201047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H17">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I17">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J17">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N17">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O17">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P17">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q17">
-        <v>33.3259097550925</v>
+        <v>0.1259407417204444</v>
       </c>
       <c r="R17">
-        <v>199.955458530555</v>
+        <v>1.133466675484</v>
       </c>
       <c r="S17">
-        <v>0.01566241809983775</v>
+        <v>3.435397658934651E-05</v>
       </c>
       <c r="T17">
-        <v>0.01604043751147448</v>
+        <v>5.301013495126385E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H18">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I18">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J18">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N18">
         <v>20.463629</v>
       </c>
       <c r="O18">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P18">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q18">
-        <v>235.7937510837475</v>
+        <v>0.5631499751337778</v>
       </c>
       <c r="R18">
-        <v>1414.762506502485</v>
+        <v>5.068349776204</v>
       </c>
       <c r="S18">
-        <v>0.1108176893577042</v>
+        <v>0.000153615428952935</v>
       </c>
       <c r="T18">
-        <v>0.113492323469941</v>
+        <v>0.0002370373222503925</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H19">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I19">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J19">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N19">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O19">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P19">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q19">
-        <v>49.0928056320625</v>
+        <v>0.09886488395911112</v>
       </c>
       <c r="R19">
-        <v>294.556833792375</v>
+        <v>0.8897839556320001</v>
       </c>
       <c r="S19">
-        <v>0.02307249984033626</v>
+        <v>2.696825397915225E-05</v>
       </c>
       <c r="T19">
-        <v>0.02362936486328715</v>
+        <v>4.161354593453815E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H20">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I20">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J20">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N20">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O20">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P20">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q20">
-        <v>699.5051855236462</v>
+        <v>3.514651396637333</v>
       </c>
       <c r="R20">
-        <v>2798.020742094585</v>
+        <v>21.087908379824</v>
       </c>
       <c r="S20">
-        <v>0.3287514957337888</v>
+        <v>0.000958722730630007</v>
       </c>
       <c r="T20">
-        <v>0.2244573726529169</v>
+        <v>0.0009862423776835052</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H21">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I21">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J21">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N21">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O21">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P21">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q21">
-        <v>51.58672926100749</v>
+        <v>0.06382814164711112</v>
       </c>
       <c r="R21">
-        <v>309.5203755660449</v>
+        <v>0.5744532748240001</v>
       </c>
       <c r="S21">
-        <v>0.02424458711035092</v>
+        <v>1.741097006363264E-05</v>
       </c>
       <c r="T21">
-        <v>0.02482974097972216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J22">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.9640756666666667</v>
-      </c>
-      <c r="N22">
-        <v>2.892227</v>
-      </c>
-      <c r="O22">
-        <v>0.03116597139157128</v>
-      </c>
-      <c r="P22">
-        <v>0.03985704515756099</v>
-      </c>
-      <c r="Q22">
-        <v>0.02703011082488889</v>
-      </c>
-      <c r="R22">
-        <v>0.243270997424</v>
-      </c>
-      <c r="S22">
-        <v>1.27035360815519E-05</v>
-      </c>
-      <c r="T22">
-        <v>1.951521234384034E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J23">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.821209666666666</v>
-      </c>
-      <c r="N23">
-        <v>20.463629</v>
-      </c>
-      <c r="O23">
-        <v>0.2205113485150814</v>
-      </c>
-      <c r="P23">
-        <v>0.2820040699227877</v>
-      </c>
-      <c r="Q23">
-        <v>0.1912485291608889</v>
-      </c>
-      <c r="R23">
-        <v>1.721236762448</v>
-      </c>
-      <c r="S23">
-        <v>8.988245022295685E-05</v>
-      </c>
-      <c r="T23">
-        <v>0.0001380777045717951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J24">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.420191666666667</v>
-      </c>
-      <c r="N24">
-        <v>4.260575</v>
-      </c>
-      <c r="O24">
-        <v>0.04591097398705006</v>
-      </c>
-      <c r="P24">
-        <v>0.05871390114682403</v>
-      </c>
-      <c r="Q24">
-        <v>0.03981838715555556</v>
-      </c>
-      <c r="R24">
-        <v>0.3583654844</v>
-      </c>
-      <c r="S24">
-        <v>1.871373451691655E-05</v>
-      </c>
-      <c r="T24">
-        <v>2.874809820662678E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J25">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>20.2357845</v>
-      </c>
-      <c r="N25">
-        <v>40.471569</v>
-      </c>
-      <c r="O25">
-        <v>0.6541684461278472</v>
-      </c>
-      <c r="P25">
-        <v>0.5577284055609555</v>
-      </c>
-      <c r="Q25">
-        <v>0.5673574352880001</v>
-      </c>
-      <c r="R25">
-        <v>3.404144611728</v>
-      </c>
-      <c r="S25">
-        <v>0.0002666450647209836</v>
-      </c>
-      <c r="T25">
-        <v>0.0002730806616919716</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J26">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.492337666666667</v>
-      </c>
-      <c r="N26">
-        <v>4.477012999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.04824325997845007</v>
-      </c>
-      <c r="P26">
-        <v>0.06169657821187188</v>
-      </c>
-      <c r="Q26">
-        <v>0.04184116860622222</v>
-      </c>
-      <c r="R26">
-        <v>0.376570517456</v>
-      </c>
-      <c r="S26">
-        <v>1.966439570029494E-05</v>
-      </c>
-      <c r="T26">
-        <v>3.020850692602402E-05</v>
+        <v>2.6866114620099E-05</v>
       </c>
     </row>
   </sheetData>
